--- a/test_data/OpenEMRData.xlsx
+++ b/test_data/OpenEMRData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="validCredentialTest" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>OpenEMR</t>
-  </si>
-  <si>
-    <t>receptionist</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>accountant</t>
   </si>
   <si>
     <t xml:space="preserve">Password </t>
@@ -384,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,39 +407,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -461,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -472,21 +427,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
